--- a/biology/Zoologie/Fadet_castillan/Fadet_castillan.xlsx
+++ b/biology/Zoologie/Fadet_castillan/Fadet_castillan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha iphioides
 Le Fadet castillan (Coenonympha iphioides) est un lépidoptère (papillon) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Coenonympha.
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha iphioides a été nommé par Otto Staudinger en 1870.
-Il est considéré soit comme une sous-espèce de Coenonympha glycerion le Fadet de la mélique, soit comme une semi-espèce soit comme une espèce distincte[1],[2],[3].
-Noms vernaculaires
-Le Fadet castillan se nomme Spanish Heath en anglais et Castaneo morena  en espagnol[1].
+Il est considéré soit comme une sous-espèce de Coenonympha glycerion le Fadet de la mélique, soit comme une semi-espèce soit comme une espèce distincte.
 </t>
         </is>
       </c>
@@ -543,10 +555,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fadet castillan se nomme Spanish Heath en anglais et Castaneo morena  en espagnol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fadet_castillan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_castillan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Fadet castillan est un petit papillon au dessus de couleur orangée très suffusé de marron aux postérieures et aussi aux antérieures chez le mâle.
 Le revers présente les mêmes couleurs avec une bande antémarginale orange bien nette présente aussi dans l'angle anal. Un petit ocelle chez le mâle, deux chez la femelle marquent l'apex des antérieures alors que les postérieures sont caractérisées par des taches blanches en e1 et e4 et une ligne submarginale d'ocelles pupillés et cernés de blanc identiques entre eux.
@@ -554,40 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fadet_castillan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_castillan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une seule génération, de fin mai à fin août[3].
-Plantes hôtes
-Ses plantes hôtes sont diverses poacées (graminées).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -609,16 +626,127 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une seule génération, de fin mai à fin août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fadet_castillan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_castillan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses poacées (graminées).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fadet_castillan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_castillan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il n'est présent qu'en Espagne, dans les monts cantabriques et les Pyrénées[1].
-En France sa présence dans les trois départements de l'est des Pyrénées et en particulier dans les Pyrénées-Orientales est sujet à controverse car ce pourrait être un hybride de Coenonympha glycerion et Coenonympha iphioides qui y réside[4]
-Biotope
-Il réside dans les prairies alpines.
-Protection</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'est présent qu'en Espagne, dans les monts cantabriques et les Pyrénées.
+En France sa présence dans les trois départements de l'est des Pyrénées et en particulier dans les Pyrénées-Orientales est sujet à controverse car ce pourrait être un hybride de Coenonympha glycerion et Coenonympha iphioides qui y réside
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fadet_castillan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_castillan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prairies alpines.
+</t>
         </is>
       </c>
     </row>
